--- a/data/trans_dic/P36$huevo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,31</t>
+          <t>3,11; 6,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,35</t>
+          <t>3,88; 7,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,76</t>
+          <t>8,19; 12,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,56</t>
+          <t>0,74; 2,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,36</t>
+          <t>1,01; 3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,51</t>
+          <t>6,08; 10,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,93</t>
+          <t>2,15; 4,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,81</t>
+          <t>2,78; 4,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 10,91</t>
+          <t>7,68; 10,73</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,14</t>
+          <t>3,24; 6,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,05</t>
+          <t>2,63; 5,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,41</t>
+          <t>8,56; 12,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,85</t>
+          <t>2,39; 4,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,26</t>
+          <t>0,79; 2,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,74</t>
+          <t>7,08; 10,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,0</t>
+          <t>3,12; 4,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,36</t>
+          <t>1,95; 3,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,97</t>
+          <t>8,34; 11,04</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,28</t>
+          <t>2,02; 5,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,98</t>
+          <t>3,45; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,44</t>
+          <t>1,94; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,64</t>
+          <t>0,78; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,83</t>
+          <t>1,99; 4,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,18</t>
+          <t>1,06; 3,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,5</t>
+          <t>1,76; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,19</t>
+          <t>3,12; 5,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,22</t>
+          <t>1,72; 3,24</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,28</t>
+          <t>1,4; 3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,52</t>
+          <t>2,17; 4,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,57</t>
+          <t>4,44; 7,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,73</t>
+          <t>0,95; 2,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,05</t>
+          <t>1,97; 4,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,79</t>
+          <t>3,79; 6,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,55</t>
+          <t>1,35; 2,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,86</t>
+          <t>2,32; 3,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,5</t>
+          <t>4,5; 6,56</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,31</t>
+          <t>3,05; 4,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,91</t>
+          <t>3,51; 4,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,37</t>
+          <t>6,58; 8,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,64; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,93</t>
+          <t>1,83; 2,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,89</t>
+          <t>5,23; 6,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,25</t>
+          <t>2,45; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,73</t>
+          <t>2,83; 3,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,39</t>
+          <t>6,1; 7,35</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, alimentos como huevos, queso, jamón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31124</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38213</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69103</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9880</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13405</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53750</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41003</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51618</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>122854</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21559; 43398</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27190; 50593</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55133; 85350</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5102; 17834</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7065; 23558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40818; 69160</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29677; 55232</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38885; 67439</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>103294; 144217</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42447</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37468</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>106487</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33280</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14459</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>92061</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75726</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>51928</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>198548</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31103; 58656</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26766; 51392</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87420; 127266</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23082; 47361</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8165; 23577</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73748; 111879</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60173; 96056</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39980; 69141</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>172076; 227813</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24223</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37695</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21824</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24429</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15041</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34199</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62124</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36865</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13654; 35446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26090; 51640</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14689; 32884</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5316; 17506</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15464; 37289</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8354; 23763</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24012; 49030</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47766; 80014</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26483; 50076</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20198</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29844</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54539</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17523</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30390</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53456</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37721</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60235</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107995</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13134; 30029</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20488; 41960</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41649; 70809</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9818; 27667</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20649; 42925</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39531; 71994</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26731; 52258</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46271; 78384</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>89026; 129966</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117992</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>143221</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>251953</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>82684</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>214308</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>188650</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>225905</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>466261</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99597; 142048</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>119929; 169409</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>223198; 280357</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55194; 89177</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65029; 104497</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>185120; 243954</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>162591; 218052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>197467; 256117</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>422647; 509481</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>